--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Koski.Spring.011420.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Koski.Spring.011420.xlsx_with_dialog_acts.xlsx
@@ -723,12 +723,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1353,12 +1353,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2029,12 +2029,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2701,12 +2701,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3927,12 +3927,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4305,12 +4305,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4347,12 +4347,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4435,12 +4435,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4687,12 +4687,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5233,12 +5233,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5615,12 +5615,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5657,12 +5657,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6677,12 +6677,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6845,12 +6845,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7013,12 +7013,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7433,12 +7433,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7727,12 +7727,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7979,12 +7979,12 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8861,12 +8861,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8903,12 +8903,12 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9113,12 +9113,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10847,12 +10847,12 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10889,12 +10889,12 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11103,12 +11103,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11229,12 +11229,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11313,12 +11313,12 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11905,12 +11905,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12325,12 +12325,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12493,12 +12493,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12623,12 +12623,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -13127,12 +13127,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13211,12 +13211,12 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13677,12 +13677,12 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14097,12 +14097,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14475,12 +14475,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14517,12 +14517,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14643,12 +14643,12 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15487,12 +15487,12 @@
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15785,12 +15785,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16163,12 +16163,12 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16293,12 +16293,12 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16507,12 +16507,12 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17141,12 +17141,12 @@
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17603,12 +17603,12 @@
       <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17813,12 +17813,12 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17855,12 +17855,12 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17897,12 +17897,12 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18107,12 +18107,12 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18359,12 +18359,12 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18485,12 +18485,12 @@
       <c r="H428" t="inlineStr"/>
       <c r="I428" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18779,12 +18779,12 @@
       <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18821,12 +18821,12 @@
       <c r="H436" t="inlineStr"/>
       <c r="I436" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19371,12 +19371,12 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20253,12 +20253,12 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20589,12 +20589,12 @@
       <c r="H478" t="inlineStr"/>
       <c r="I478" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21093,12 +21093,12 @@
       <c r="H490" t="inlineStr"/>
       <c r="I490" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21135,12 +21135,12 @@
       <c r="H491" t="inlineStr"/>
       <c r="I491" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21933,12 +21933,12 @@
       <c r="H510" t="inlineStr"/>
       <c r="I510" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22269,12 +22269,12 @@
       <c r="H518" t="inlineStr"/>
       <c r="I518" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22521,12 +22521,12 @@
       <c r="H524" t="inlineStr"/>
       <c r="I524" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22567,12 +22567,12 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22609,12 +22609,12 @@
       <c r="H526" t="inlineStr"/>
       <c r="I526" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22819,12 +22819,12 @@
       <c r="H531" t="inlineStr"/>
       <c r="I531" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23453,12 +23453,12 @@
       <c r="H546" t="inlineStr"/>
       <c r="I546" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23667,12 +23667,12 @@
       <c r="H551" t="inlineStr"/>
       <c r="I551" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23751,12 +23751,12 @@
       <c r="H553" t="inlineStr"/>
       <c r="I553" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23793,12 +23793,12 @@
       <c r="H554" t="inlineStr"/>
       <c r="I554" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23961,12 +23961,12 @@
       <c r="H558" t="inlineStr"/>
       <c r="I558" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24599,12 +24599,12 @@
       <c r="H573" t="inlineStr"/>
       <c r="I573" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24939,12 +24939,12 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24981,12 +24981,12 @@
       <c r="H582" t="inlineStr"/>
       <c r="I582" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25107,12 +25107,12 @@
       <c r="H585" t="inlineStr"/>
       <c r="I585" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25237,12 +25237,12 @@
       <c r="H588" t="inlineStr"/>
       <c r="I588" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25279,12 +25279,12 @@
       <c r="H589" t="inlineStr"/>
       <c r="I589" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26501,12 +26501,12 @@
       <c r="H618" t="inlineStr"/>
       <c r="I618" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27215,12 +27215,12 @@
       <c r="H635" t="inlineStr"/>
       <c r="I635" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27635,12 +27635,12 @@
       <c r="H645" t="inlineStr"/>
       <c r="I645" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27677,12 +27677,12 @@
       <c r="H646" t="inlineStr"/>
       <c r="I646" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27887,12 +27887,12 @@
       <c r="H651" t="inlineStr"/>
       <c r="I651" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28307,12 +28307,12 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29739,12 +29739,12 @@
       <c r="H695" t="inlineStr"/>
       <c r="I695" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30541,12 +30541,12 @@
       <c r="H714" t="inlineStr"/>
       <c r="I714" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J714" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -31003,12 +31003,12 @@
       <c r="H725" t="inlineStr"/>
       <c r="I725" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J725" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -31389,12 +31389,12 @@
       <c r="H734" t="inlineStr"/>
       <c r="I734" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J734" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -31809,12 +31809,12 @@
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>fc</t>
         </is>
       </c>
       <c r="J744" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Conventional-closing</t>
         </is>
       </c>
     </row>
